--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Gip-Gipr.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Gip-Gipr.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="24">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -77,9 +77,6 @@
   </si>
   <si>
     <t>ECs</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
   </si>
   <si>
     <t>Gip</t>
@@ -446,7 +443,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,10 +516,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" t="s">
         <v>22</v>
-      </c>
-      <c r="C2" t="s">
-        <v>23</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -534,46 +531,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.2440396666666667</v>
+        <v>0.01348466666666667</v>
       </c>
       <c r="H2">
-        <v>0.732119</v>
+        <v>0.040454</v>
       </c>
       <c r="I2">
-        <v>0.5984434824403371</v>
+        <v>1</v>
       </c>
       <c r="J2">
-        <v>0.5984434824403371</v>
+        <v>1</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.06992933333333333</v>
+        <v>0.03822966666666667</v>
       </c>
       <c r="N2">
-        <v>0.209788</v>
+        <v>0.114689</v>
       </c>
       <c r="O2">
-        <v>0.275894538606403</v>
+        <v>0.287343161228253</v>
       </c>
       <c r="P2">
-        <v>0.275894538606403</v>
+        <v>0.287343161228253</v>
       </c>
       <c r="Q2">
-        <v>0.01706553119688889</v>
+        <v>0.0005155143117777778</v>
       </c>
       <c r="R2">
-        <v>0.153589780772</v>
+        <v>0.004639628805999999</v>
       </c>
       <c r="S2">
-        <v>0.1651072884698858</v>
+        <v>0.287343161228253</v>
       </c>
       <c r="T2">
-        <v>0.1651072884698858</v>
+        <v>0.287343161228253</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,13 +578,13 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" t="s">
         <v>22</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>23</v>
-      </c>
-      <c r="D3" t="s">
-        <v>24</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -596,16 +593,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.2440396666666667</v>
+        <v>0.01348466666666667</v>
       </c>
       <c r="H3">
-        <v>0.732119</v>
+        <v>0.040454</v>
       </c>
       <c r="I3">
-        <v>0.5984434824403371</v>
+        <v>1</v>
       </c>
       <c r="J3">
-        <v>0.5984434824403371</v>
+        <v>1</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -620,270 +617,22 @@
         <v>0.284447</v>
       </c>
       <c r="O3">
-        <v>0.3740794221927637</v>
+        <v>0.7126568387717469</v>
       </c>
       <c r="P3">
-        <v>0.3740794221927637</v>
+        <v>0.712656838771747</v>
       </c>
       <c r="Q3">
-        <v>0.02313878368811111</v>
+        <v>0.001278557659777778</v>
       </c>
       <c r="R3">
-        <v>0.208249053193</v>
+        <v>0.011507018938</v>
       </c>
       <c r="S3">
-        <v>0.2238653921263067</v>
+        <v>0.7126568387717469</v>
       </c>
       <c r="T3">
-        <v>0.2238653921263067</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20">
-      <c r="A4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" t="s">
-        <v>21</v>
-      </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-      <c r="F4">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G4">
-        <v>0.2440396666666667</v>
-      </c>
-      <c r="H4">
-        <v>0.732119</v>
-      </c>
-      <c r="I4">
-        <v>0.5984434824403371</v>
-      </c>
-      <c r="J4">
-        <v>0.5984434824403371</v>
-      </c>
-      <c r="K4">
-        <v>1</v>
-      </c>
-      <c r="L4">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M4">
-        <v>0.08871900000000001</v>
-      </c>
-      <c r="N4">
-        <v>0.266157</v>
-      </c>
-      <c r="O4">
-        <v>0.3500260392008332</v>
-      </c>
-      <c r="P4">
-        <v>0.3500260392008333</v>
-      </c>
-      <c r="Q4">
-        <v>0.021650955187</v>
-      </c>
-      <c r="R4">
-        <v>0.194858596683</v>
-      </c>
-      <c r="S4">
-        <v>0.2094708018441446</v>
-      </c>
-      <c r="T4">
-        <v>0.2094708018441446</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20">
-      <c r="A5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G5">
-        <v>0.163751</v>
-      </c>
-      <c r="H5">
-        <v>0.491253</v>
-      </c>
-      <c r="I5">
-        <v>0.401556517559663</v>
-      </c>
-      <c r="J5">
-        <v>0.401556517559663</v>
-      </c>
-      <c r="K5">
-        <v>2</v>
-      </c>
-      <c r="L5">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M5">
-        <v>0.06992933333333333</v>
-      </c>
-      <c r="N5">
-        <v>0.209788</v>
-      </c>
-      <c r="O5">
-        <v>0.275894538606403</v>
-      </c>
-      <c r="P5">
-        <v>0.275894538606403</v>
-      </c>
-      <c r="Q5">
-        <v>0.01145099826266667</v>
-      </c>
-      <c r="R5">
-        <v>0.103058984364</v>
-      </c>
-      <c r="S5">
-        <v>0.1107872501365172</v>
-      </c>
-      <c r="T5">
-        <v>0.1107872501365172</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20">
-      <c r="A6" t="s">
-        <v>21</v>
-      </c>
-      <c r="B6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" t="s">
-        <v>24</v>
-      </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-      <c r="F6">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G6">
-        <v>0.163751</v>
-      </c>
-      <c r="H6">
-        <v>0.491253</v>
-      </c>
-      <c r="I6">
-        <v>0.401556517559663</v>
-      </c>
-      <c r="J6">
-        <v>0.401556517559663</v>
-      </c>
-      <c r="K6">
-        <v>1</v>
-      </c>
-      <c r="L6">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M6">
-        <v>0.09481566666666667</v>
-      </c>
-      <c r="N6">
-        <v>0.284447</v>
-      </c>
-      <c r="O6">
-        <v>0.3740794221927637</v>
-      </c>
-      <c r="P6">
-        <v>0.3740794221927637</v>
-      </c>
-      <c r="Q6">
-        <v>0.01552616023233334</v>
-      </c>
-      <c r="R6">
-        <v>0.139735442091</v>
-      </c>
-      <c r="S6">
-        <v>0.1502140300664571</v>
-      </c>
-      <c r="T6">
-        <v>0.1502140300664571</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20">
-      <c r="A7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" t="s">
-        <v>21</v>
-      </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G7">
-        <v>0.163751</v>
-      </c>
-      <c r="H7">
-        <v>0.491253</v>
-      </c>
-      <c r="I7">
-        <v>0.401556517559663</v>
-      </c>
-      <c r="J7">
-        <v>0.401556517559663</v>
-      </c>
-      <c r="K7">
-        <v>1</v>
-      </c>
-      <c r="L7">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M7">
-        <v>0.08871900000000001</v>
-      </c>
-      <c r="N7">
-        <v>0.266157</v>
-      </c>
-      <c r="O7">
-        <v>0.3500260392008332</v>
-      </c>
-      <c r="P7">
-        <v>0.3500260392008333</v>
-      </c>
-      <c r="Q7">
-        <v>0.014527824969</v>
-      </c>
-      <c r="R7">
-        <v>0.130750424721</v>
-      </c>
-      <c r="S7">
-        <v>0.1405552373566887</v>
-      </c>
-      <c r="T7">
-        <v>0.1405552373566887</v>
+        <v>0.712656838771747</v>
       </c>
     </row>
   </sheetData>
